--- a/Data/Angajat.xlsx
+++ b/Data/Angajat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudiu.vaida\Documents\UiPath\minditOnBoarding\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudiu.vaida\Documents\UiPath\ClauBoard-MindIT-On-board-process-\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A20ED47-F165-481E-B560-06ACDADDAB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E5C0D6-3FC1-4EC9-8A1D-FDCF2ABA55C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
-  <si>
-    <t>Functie</t>
-  </si>
-  <si>
-    <t>SalariuNet</t>
-  </si>
-  <si>
-    <t>DataInceput</t>
-  </si>
-  <si>
-    <t>ProgramFullTime</t>
-  </si>
-  <si>
-    <t>ConcendiuOdihna</t>
-  </si>
-  <si>
-    <t>PunctDeLucru</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Scutit</t>
   </si>
@@ -57,9 +39,6 @@
     <t>Nu</t>
   </si>
   <si>
-    <t>Nume</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -69,66 +48,24 @@
     <t>cbbb74d9-9597-4632-ac29-ed6801a01c87.jfif</t>
   </si>
   <si>
-    <t>Mail Angajat</t>
-  </si>
-  <si>
-    <t>Bucuresti, Sector 3, Bl.54, sc.2, ap.21</t>
-  </si>
-  <si>
     <t>HR Username</t>
   </si>
   <si>
     <t>HR Password</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Userul trebuie sa aibe access</t>
-  </si>
-  <si>
-    <t>uxgv9lf8xsmlq4yj</t>
-  </si>
-  <si>
-    <t>Ziua Nasterii</t>
-  </si>
-  <si>
     <t>MM/dd/yyyy</t>
   </si>
   <si>
-    <t>Manager Click</t>
-  </si>
-  <si>
-    <t>Admin Click</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
-    <t>Este sau nu Manager (True or False)</t>
-  </si>
-  <si>
-    <t>Este sau nu Admin (True or False)</t>
-  </si>
-  <si>
-    <t>Manager Name</t>
-  </si>
-  <si>
     <t>Maria Ionescu</t>
   </si>
   <si>
-    <t>User Teams</t>
-  </si>
-  <si>
     <t>Developer</t>
   </si>
   <si>
-    <t>Numele Managerului asignat</t>
-  </si>
-  <si>
-    <t>Developer sau Business Functions</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -138,36 +75,15 @@
     <t>M sau F</t>
   </si>
   <si>
-    <t>CNP</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>Ex: 0721123123</t>
-  </si>
-  <si>
     <t>0721123123</t>
   </si>
   <si>
     <t>1890922440021</t>
   </si>
   <si>
-    <t>Oras, Sector, Adresa</t>
-  </si>
-  <si>
-    <t>BuddyName</t>
-  </si>
-  <si>
     <t>Claudia Istrate</t>
   </si>
   <si>
-    <t>PasswordMail</t>
-  </si>
-  <si>
-    <t>PasswordLaptop</t>
-  </si>
-  <si>
     <t>123456asd</t>
   </si>
   <si>
@@ -180,41 +96,131 @@
     <t>03/02/2020</t>
   </si>
   <si>
-    <t>Trebuie Prenume urmat de Nume(Ex: Gica Vladut)</t>
-  </si>
-  <si>
     <t>claudiu.vaida@mindit.io</t>
   </si>
   <si>
-    <t>Prerequisites:</t>
-  </si>
-  <si>
-    <t>Tre sa am poza de la buletin</t>
-  </si>
-  <si>
-    <t>Tre sa fi sigur ca ai Userul si parola</t>
-  </si>
-  <si>
-    <t>Mapari</t>
-  </si>
-  <si>
-    <t>Valori</t>
-  </si>
-  <si>
-    <t>user.test@mindit.io</t>
-  </si>
-  <si>
-    <t>Test User</t>
-  </si>
-  <si>
-    <t>Poza Buletin</t>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Values/Assets</t>
+  </si>
+  <si>
+    <t>Mappings</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Net Salary</t>
+  </si>
+  <si>
+    <t>Work Hours</t>
+  </si>
+  <si>
+    <t>Days off</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>ID Photo</t>
+  </si>
+  <si>
+    <t>Employee's Mail</t>
+  </si>
+  <si>
+    <t>Born Date</t>
+  </si>
+  <si>
+    <t>Manager?(Holidays)</t>
+  </si>
+  <si>
+    <t>Admin?(Holidays)</t>
+  </si>
+  <si>
+    <t>Manager's Name</t>
+  </si>
+  <si>
+    <t>User Teams(Holidays)</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Buddy Name</t>
+  </si>
+  <si>
+    <t>Mail Password</t>
+  </si>
+  <si>
+    <t>Laptop Password</t>
+  </si>
+  <si>
+    <t>Additional Info</t>
+  </si>
+  <si>
+    <t>First Name followed up by Last Name</t>
+  </si>
+  <si>
+    <t>Format: MM/dd/yyyy</t>
+  </si>
+  <si>
+    <t>Any type of characters are allowed</t>
+  </si>
+  <si>
+    <t>Only numeric values</t>
+  </si>
+  <si>
+    <t>Bucuresti, Intrarea Ion Luca Caragiale nr.5</t>
+  </si>
+  <si>
+    <t>Da/Nu</t>
+  </si>
+  <si>
+    <t>Photo's full filename</t>
+  </si>
+  <si>
+    <t>E-mail address</t>
+  </si>
+  <si>
+    <t>E-mail address with HR credentials from Holidays.mindit.ro</t>
+  </si>
+  <si>
+    <t>HR's password</t>
+  </si>
+  <si>
+    <t>Only True or False values are allowed</t>
+  </si>
+  <si>
+    <t>Manager's Name that can be found in Holidays.mindit.ro</t>
+  </si>
+  <si>
+    <t>Developer or Business Functions</t>
+  </si>
+  <si>
+    <t>The personal numeric code (CNP)</t>
+  </si>
+  <si>
+    <t>City, Address</t>
+  </si>
+  <si>
+    <t>Nume Prenume</t>
+  </si>
+  <si>
+    <t>asd123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +240,21 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,11 +311,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,345 +597,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I41"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" customWidth="1"/>
-    <col min="9" max="9" width="60.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="H7" s="2">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="1"/>
-    </row>
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="33" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="35" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="36" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="37" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="38" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="39" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="40" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="41" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="42" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="43" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="44" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="46" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="47" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" xr:uid="{3B75D67C-5D6F-4607-B13E-4A78949A7A60}"/>
